--- a/teaching/traditional_assets/database/data/egypt/egypt_diversified.xlsx
+++ b/teaching/traditional_assets/database/data/egypt/egypt_diversified.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.144</v>
+        <v>0.0294</v>
       </c>
       <c r="G2">
-        <v>0.6808510638297872</v>
+        <v>-0.01582278481012658</v>
       </c>
       <c r="H2">
-        <v>0.6808510638297872</v>
+        <v>-0.01582278481012658</v>
       </c>
       <c r="I2">
-        <v>-3.297872340425532</v>
+        <v>-0.2689873417721519</v>
       </c>
       <c r="J2">
-        <v>-3.297872340425532</v>
+        <v>-0.2689873417721519</v>
       </c>
       <c r="K2">
-        <v>-0.185</v>
+        <v>-0.107</v>
       </c>
       <c r="L2">
-        <v>-3.936170212765957</v>
+        <v>-0.3386075949367088</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,31 +633,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0006993006993006993</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-0.03685258964143426</v>
+        <v>-0.02061657032755299</v>
       </c>
       <c r="X2">
-        <v>0.09261473037502671</v>
+        <v>0.08291513563551006</v>
       </c>
       <c r="Y2">
-        <v>-0.129467320016461</v>
+        <v>-0.103531705963063</v>
       </c>
       <c r="Z2">
-        <v>0.009362549800796814</v>
+        <v>0.06089805357486992</v>
       </c>
       <c r="AA2">
-        <v>-0.03087649402390439</v>
+        <v>-0.01638080555020235</v>
       </c>
       <c r="AB2">
-        <v>0.09261473037502671</v>
+        <v>0.08291513563551006</v>
       </c>
       <c r="AC2">
-        <v>-0.1234912243989311</v>
+        <v>-0.09929594118571242</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.0006997900629811056</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>-0.0001873009926952613</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>-0</v>
       </c>
       <c r="AP2">
-        <v>0.006666666666666667</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -713,25 +713,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.144</v>
+        <v>0.0294</v>
       </c>
       <c r="G3">
-        <v>0.6808510638297872</v>
+        <v>-0.01582278481012658</v>
       </c>
       <c r="H3">
-        <v>0.6808510638297872</v>
+        <v>-0.01582278481012658</v>
       </c>
       <c r="I3">
-        <v>-3.297872340425532</v>
+        <v>-0.2689873417721519</v>
       </c>
       <c r="J3">
-        <v>-3.297872340425532</v>
+        <v>-0.2689873417721519</v>
       </c>
       <c r="K3">
-        <v>-0.185</v>
+        <v>-0.107</v>
       </c>
       <c r="L3">
-        <v>-3.936170212765957</v>
+        <v>-0.3386075949367088</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,31 +755,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0006993006993006993</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-0.03685258964143426</v>
+        <v>-0.02061657032755299</v>
       </c>
       <c r="X3">
-        <v>0.09261473037502671</v>
+        <v>0.08291513563551006</v>
       </c>
       <c r="Y3">
-        <v>-0.129467320016461</v>
+        <v>-0.103531705963063</v>
       </c>
       <c r="Z3">
-        <v>0.009362549800796814</v>
+        <v>0.06089805357486992</v>
       </c>
       <c r="AA3">
-        <v>-0.03087649402390439</v>
+        <v>-0.01638080555020235</v>
       </c>
       <c r="AB3">
-        <v>0.09261473037502671</v>
+        <v>0.08291513563551006</v>
       </c>
       <c r="AC3">
-        <v>-0.1234912243989311</v>
+        <v>-0.09929594118571242</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.0006997900629811056</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>-0.0001873009926952613</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>-0</v>
       </c>
       <c r="AP3">
-        <v>0.006666666666666667</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
